--- a/biology/Botanique/Lindernia_yaundensis/Lindernia_yaundensis.xlsx
+++ b/biology/Botanique/Lindernia_yaundensis/Lindernia_yaundensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lindernia yaundensis (S.Moore) Eb.Fisch. est une espèce d'herbes du genre Lindernia[2],[3], de la famille des Linderniaceae[4],[5], endémique du Cameroun.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lindernia yaundensis (S.Moore) Eb.Fisch. est une espèce d'herbes du genre Lindernia de la famille des Linderniaceae endémique du Cameroun.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique yaundensis fait référence à la ville de Yaoundé, au Cameroun.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est une plante à fleur, du groupe des dicotylédones[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est une plante à fleur, du groupe des dicotylédones. 
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique du Cameroun, elle y a été observée à plusieurs reprises principalement autour de Yaoundé, mais, en 1962, René Letouzey l'a également collectée dans la Région de l'Est, au sud de Messamena[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique du Cameroun, elle y a été observée à plusieurs reprises principalement autour de Yaoundé, mais, en 1962, René Letouzey l'a également collectée dans la Région de l'Est, au sud de Messamena.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Les synonymes homotypiques[3] de cette espèce sont les suivants :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les synonymes homotypiques de cette espèce sont les suivants :
 Ilysanthes yaundensis S. Moore (1919)
 Craterostigma yaundense (S. Moore) Eb. Fisch., Schäferh. &amp; al. (2013)</t>
         </is>
